--- a/script/DeepSTL_convert/autoware_docs/autoware_motion_velocity_out_of_lane/result.xlsx
+++ b/script/DeepSTL_convert/autoware_docs/autoware_motion_velocity_out_of_lane/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13160"/>
+    <workbookView windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="98">
   <si>
     <t>index</t>
   </si>
@@ -83,6 +83,9 @@
     <t>G(O → (D ∨ S)) indicates that globally (G), whenever an out-of-lane situation occurs (O), it leads to either deceleration (D) or stopping (S). This formula captures the module's behavior of adding deceleration or stop points in response to out-of-lane scenarios.</t>
   </si>
   <si>
+    <t>{'section-id': 0, 'sentence-id': 1, 'sentence': 'The out_of_lane module adds deceleration and stop points to the ego trajectory in order to prevent collisions from occurring in these out of lane cases.', 'tl': 'always ( out_of_lanemodule == dsedcelratintoints and storepointry == egordertretrveterpolicolrpr ) -&gt; ( orderper == rtevtentlocsiocsocurinsocurinsocri == theseselecacuaecsecsecalnecasecase )'}</t>
+  </si>
+  <si>
     <t>state transition pre-requirement</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
     <t>G((O ∧ C) → X(S)) means that globally (G), if an out-of-lane situation (O) and a potential collision (C) are detected, then in the next state (X), a stop point is inserted (S). This captures the module's behavior of inserting stop points in response to potential out-of-lane collisions.</t>
   </si>
   <si>
+    <t>{'section-id': 2, 'sentence-id': 0, 'sentence': 'This module calculates if out of lane collisions occur and insert stop point before the collisions if necessary.', 'tl': 'always ( not ( Thismodulecalculates == lanescol ) and insertstoplisop == scoliolsionsecsecesnesasecesros )'}</t>
+  </si>
+  <si>
     <t>constraint</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
     <t>G(T → (L ∧ ¬X(¬L))) indicates that globally (G), when a trajectory is generated (T), its length is limited (L) and this limitation persists in the next state (¬X(¬L)). This formula captures the continuous application of the max_arc_length parameter to limit trajectory length.</t>
   </si>
   <si>
+    <t>{'section-id': 3, 'sentence-id': 1, 'sentence': 'The length of the trajectory used for generating the footprints is limited by the max_arc_length parameter.', 'tl': 'always ( lengthtrajectoryused == generatingfotprint = itslimSted ) since ( l == eritednotednmax_ar ) -&gt; ax_arc_lengte == hpararar_letecgtepr )'}</t>
+  </si>
+  <si>
     <t>We filter objects and their predicted paths with the following conditions:</t>
   </si>
   <si>
@@ -134,24 +143,36 @@
     <t>G(S &lt; min_velocity → ¬P)</t>
   </si>
   <si>
+    <t>{'section-id': 6, 'sentence-id': 1, 'sentence': '1.ignore objects with a speed bellow the minimum_velocity parameter;', 'tl': 'always ( i1gnoreobjectswit == hasededlowminmiuminm_velocite == pam_vrameteter )'}</t>
+  </si>
+  <si>
     <t>ignore objects coming from behind the ego vehicle if parameter `ignore_behind_ego` is set to true;</t>
   </si>
   <si>
     <t>G(B ∧ ignore_behind_ego → ¬P)</t>
   </si>
   <si>
+    <t>{'section-id': 6, 'sentence-id': 2, 'sentence': '2.ignore objects coming from behind the ego vehicle if parameter ignore_behind_ego is set to true;', 'tl': 'always ( e2ignoreobjects == begovehicleparameterignore_ == ere_bhind_egore )'}</t>
+  </si>
+  <si>
     <t>ignore predicted paths whose confidence value is bellow the `predicted_path_min_confidence` parameter;</t>
   </si>
   <si>
     <t>G(C &lt; predicted_path_min_confidence → ¬P)</t>
   </si>
   <si>
+    <t>{'section-id': 6, 'sentence-id': 3, 'sentence': '3.ignore predicted paths whose confidence value is bellow the predicted_path_min_confidence parameter;', 'tl': 'always ( eignoreprdedicted == dpathswhoseconidecence )'}</t>
+  </si>
+  <si>
     <t>cut the points of predicted paths going beyond the stop line of a red traffic light if parameter `cut_predicted_paths_beyond_red_lights` is set to `true`.</t>
   </si>
   <si>
     <t>G(R ∧ cut_predicted_paths_beyond_red_lights → ¬P)</t>
   </si>
   <si>
+    <t>{'section-id': 6, 'sentence-id': 4, 'sentence': '4.cut the points of predicted paths going beyond the stop line of a red traffic light if parameter cut_predicted_paths_beyond_red_lights is set to true.', 'tl': 'always ( cutpoints == edctspedictgoined ) until [ 0 : 4 . uthgoing == dednhStonde ) -&gt; eraficl == traetercut_ded_ped_pt_ == d_hah_ed_ed_ep )'}</t>
+  </si>
+  <si>
     <t>expected state change</t>
   </si>
   <si>
@@ -164,6 +185,9 @@
     <t>G((M ∧ T) → A) means that globally (G), if the mode is set to threshold (M) and the time is below the threshold (T), then the system decides to avoid the out-of-lane area (A). This formula accurately captures the conditions leading to the avoidance decision.</t>
   </si>
   <si>
+    <t>{'section-id': 7, 'sentence-id': 1, 'sentence': 'In the case where parameter mode is set to threshold and the calculated time is less than threshold.time_threshold parameter, then we decide to avoid the out of lane area.', 'tl': 'always ( whereparameter == calc and calulhresholdpae == reteterameter -&gt; fall ( wededecide == avoidearealarea ) )'}</t>
+  </si>
+  <si>
     <t>If the time to collision is bellow the `ttc.threshold` parameter value, we decide to avoid the out of lane area.</t>
   </si>
   <si>
@@ -173,6 +197,9 @@
     <t>G(C → A) indicates that globally (G), if the time to collision is below the threshold (C), then the system decides to avoid the out-of-lane area (A). This formula succinctly represents the collision-time-based decision making.</t>
   </si>
   <si>
+    <t>{'section-id': 7, 'sentence-id': 3, 'sentence': 'If the time to collision is bellow the ttc.threshold parameter value, we decide to avoid the out of lane area.', 'tl': 'always ( colisionbelow == clarameter )'}</t>
+  </si>
+  <si>
     <t>constraints</t>
   </si>
   <si>
@@ -182,6 +209,9 @@
     <t>R</t>
   </si>
   <si>
+    <t>{'section-id': 8, 'sentence-id': 2, 'sentence': 'The search is done by moving backward along the trajectory with a distance step set by the action.precision parameter.', 'tl': 'always ( searchdoneb == yingacrdalong == trajectodectrywit ) until ( str == aitahadKrycistetadK ) -&gt; epepbycstepbyrep == eprecistepre )'}</t>
+  </si>
+  <si>
     <t>If still no valid pose is found, we use the base ego footprint without any offset.</t>
   </si>
   <si>
@@ -191,12 +221,21 @@
     <t>G(¬V → B) represents that globally (G), if no valid pose is found (¬V), then the base ego footprint is used (B). This formula effectively captures the fallback mechanism when no valid pose is available.</t>
   </si>
   <si>
+    <t>{'section-id': 8, 'sentence-id': 5, 'sentence': 'If still no valid pose is found, we use the base ego footprint without any offset.', 'tl': 'always ( stilvalidposef == oundweusebasego == eofotprintofset )'}</t>
+  </si>
+  <si>
     <t>In case no pose is found, we fallback to using the pose before the detected collision without caring if it is out of lane or not.</t>
   </si>
   <si>
+    <t>{'section-id': 8, 'sentence-id': 6, 'sentence': 'In case no pose is found, we fallback to using the pose before the detected collision without caring if it is out of lane or not.', 'tl': 'always ( posefoundwe == falbacksingpose or not fall ( colilisinon == carlingit ) )'}</t>
+  </si>
+  <si>
     <t>Whether it is decided to slow down or stop is determined by the distance between the ego vehicle and the trajectory point to avoid.</t>
   </si>
   <si>
+    <t>{'section-id': 8, 'sentence-id': 7, 'sentence': 'Whether it is decided to slow down or stop is determined by the distance between the ego vehicle and the trajectory point to avoid.', 'tl': 'always ( Whetheritdecided == slow or stopdetermined == ibydistacegovehicle and tregovehicle == tratrajectre )'}</t>
+  </si>
+  <si>
     <t>If this distance is bellow the `actions.slowdown.threshold`, a velocity of `actions.slowdown.velocity` will be used.</t>
   </si>
   <si>
@@ -206,6 +245,9 @@
     <t>G(B → S) represents that globally (G), if the distance is below the slowdown threshold (B), then the slowdown velocity is applied (S). This formula accurately captures the condition for applying the slowdown velocity.</t>
   </si>
   <si>
+    <t>{'section-id': 8, 'sentence-id': 8, 'sentence': 'If this distance is bellow the actions.slowdown.threshold, a velocity of actions.slowdown.velocity will be used.', 'tl': 'always ( distanceblow == slowdowdon . avelocityacit == S ) until ( delociocityav == cionslonslocitwdn ) -&gt; ( slowdowdow == dowdownvelocnvelocit == lociylelociysl ) )'}</t>
+  </si>
+  <si>
     <t>If the distance is bellow the `actions.stop.threshold`, a velocity of `0`m/s will be used.</t>
   </si>
   <si>
@@ -227,6 +269,9 @@
     <t>G((S ∨ T) → (X(S ∨ T) U D)) means that globally (G), if a stop or slowdown is initiated (S ∨ T), it continues in the next state (X) and persists until (U) the minimum duration is met (D). This formula captures the stability mechanism for maintaining stop or slowdown decisions.</t>
   </si>
   <si>
+    <t>{'section-id': 9, 'sentence-id': 1, 'sentence': 'To make the decision more stable, a stop or slowdown pose is used for a minimum duration set by the action.min_duration parameter.', 'tl': 'always ( Tomakedecisions == stableasto or slowdwdownpseused == aminuratiurationu )'}</t>
+  </si>
+  <si>
     <t>If during that time a new pose closer to the ego vehicle is generated, then it replaces the previous one.</t>
   </si>
   <si>
@@ -236,6 +281,9 @@
     <t>This sentence describes a replacement condition, which I've formulated as G((T ∧ X(N ∧ C)) → X(R)). T represents the current time period, N represents a new pose being generated, C represents the new pose being closer to the ego vehicle, and R represents the replacement action. The X operator is used to indicate the immediate next state where the new pose is generated and the replacement occurs. This formula elegantly captures the conditional replacement based on the generation of a closer pose.</t>
   </si>
   <si>
+    <t>{'section-id': 9, 'sentence-id': 2, 'sentence': 'If during that time a new pose closer to the ego vehicle is generated, then it replaces the previous one.', 'tl': 'always ( anewposecloser == egovehiclegenrated -&gt; itreplacespes == rviousone )'}</t>
+  </si>
+  <si>
     <t>Otherwise, the stop or slowdown pose will only be discarded after no out of lane collision is detection for the set duration.</t>
   </si>
   <si>
@@ -245,6 +293,9 @@
     <t>G((S ∨ T) → ((S ∨ T) U (¬O ∧ D))) indicates that globally (G), if a stop or slowdown is in effect (S ∨ T), it continues until (U) no out-of-lane collision is detected (¬O) for the set duration (D). This formula effectively captures the condition for discarding the stop or slowdown pose.</t>
   </si>
   <si>
+    <t>{'section-id': 9, 'sentence-id': 3, 'sentence': 'Otherwise, the stop or slowdown pose will only be discarded after no out of lane collision is detection for the set duration.', 'tl': 'always ( Otherwise == stop or not ( slowdonly == discarded ) -&gt; ( lanecolisionde == detectionduration ) until ( not ( s == lolwduasecio ) ) )'}</t>
+  </si>
+  <si>
     <t>{'section-id': 2, 'sentence-id': 1, 'sentence': 'The algorithm assumes the input ego trajectory contains accurate time_from_start values in order to calculate accurate time to collisions with the predicted objects.', 'tl': 'always ( algorithmsumes == inpegotracontacsacur ) until ( algore == eteticoicointacsa ) -&gt; rtm_etrtalrdue == calrlaculateculatecuratecuatecuratecula == culolacSecuisicicisitdedtsodedctedcted )'}</t>
   </si>
   <si>
@@ -260,67 +311,16 @@
     <t>{'section-id': 8, 'sentence-id': 1, 'sentence': 'We then search for the furthest pose along the trajectory where the ego footprint stays inside of the ego lane (calculate in step 2) and constraint the search to be between the minimum stopping distance and the 1st trajectory point with a collision to avoid (as determined in the previous step).', 'tl': 'always ( rise ( eWsearc == iostahsocinlo ) -&gt; ( ertraheSe == egotrecolnecSte ) and ( cesaterchi == sinicsoicitasoicicsoicics ) )'}</t>
   </si>
   <si>
-    <t>{'section-id': 3, 'sentence-id': 1, 'sentence': 'The length of the trajectory used for generating the footprints is limited by the max_arc_length parameter.', 'tl': 'always ( lengthtrajectoryused == generatingfotprint = itslimSted ) since ( l == eritednotednmax_ar ) -&gt; ax_arc_lengte == hpararar_letecgtepr )'}</t>
-  </si>
-  <si>
     <t>{'section-id': 4, 'sentence-id': 0, 'sentence': 'In the second step, we calculate the lanelets where collisions should be avoided.', 'tl': 'always ( secondstepwec == lalaeletswerecolecolisions == avoiavoidededed -&gt; sd )'}</t>
   </si>
   <si>
-    <t>{'section-id': 6, 'sentence-id': 1, 'sentence': '1.ignore objects with a speed bellow the minimum_velocity parameter;', 'tl': 'always ( i1gnoreobjectswit == hasededlowminmiuminm_velocite == pam_vrameteter )'}</t>
-  </si>
-  <si>
     <t>{'section-id': 7, 'sentence-id': 0, 'sentence': 'For each out of lane area, we calculate the times when a dynamic object will overlap the area based on its filtered predicted paths.', 'tl': 'always ( not ( laneareawecula == etimednamecovcovera == erasedaredtedaser ) and da == edasedtedilepeditraseditedtrasedilepedted == ratedterasedtedpedtepedp )'}</t>
   </si>
   <si>
     <t>{'section-id': 8, 'sentence-id': 3, 'sentence': 'We first do this search for a footprint expanded with the ego.extra_..._offset, action.longitudinal_distance_buffer and action.lateral_distance_buffer parameters.', 'tl': 'always ( eWdosearch == afotprinexStedw == xo_ . K ) until ( _ofgiced == extra_ . lone ) -&gt; lngitdnalit == S_dstance_bufe and latr_da == e_bfe_uferace_bfracerasferaferateraeramerater )'}</t>
   </si>
   <si>
-    <t>{'section-id': 6, 'sentence-id': 2, 'sentence': '2.ignore objects coming from behind the ego vehicle if parameter ignore_behind_ego is set to true;', 'tl': 'always ( e2ignoreobjects == begovehicleparameterignore_ == ere_bhind_egore )'}</t>
-  </si>
-  <si>
     <t>{'section-id': 8, 'sentence-id': 4, 'sentence': 'If no valid pose is found, we search again while only considering the extra offsets but without considering the distance buffers.', 'tl': 'always ( validposefond == esarcoginl ) until ( er == ahaginlyconsiexder == extrafsetra ) -&gt; ( sbtcofsetset == sbtrinsiederingderinstri == deringder )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 6, 'sentence-id': 3, 'sentence': '3.ignore predicted paths whose confidence value is bellow the predicted_path_min_confidence parameter;', 'tl': 'always ( eignoreprdedicted == dpathswhoseconidecence )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 0, 'sentence-id': 1, 'sentence': 'The out_of_lane module adds deceleration and stop points to the ego trajectory in order to prevent collisions from occurring in these out of lane cases.', 'tl': 'always ( out_of_lanemodule == dsedcelratintoints and storepointry == egordertretrveterpolicolrpr ) -&gt; ( orderper == rtevtentlocsiocsocurinsocurinsocri == theseselecacuaecsecsecalnecasecase )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 6, 'sentence-id': 4, 'sentence': '4.cut the points of predicted paths going beyond the stop line of a red traffic light if parameter cut_predicted_paths_beyond_red_lights is set to true.', 'tl': 'always ( cutpoints == edctspedictgoined ) until [ 0 : 4 . uthgoing == dednhStonde ) -&gt; eraficl == traetercut_ded_ped_pt_ == d_hah_ed_ed_ep )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 0, 'sentence': 'This module calculates if out of lane collisions occur and insert stop point before the collisions if necessary.', 'tl': 'always ( not ( Thismodulecalculates == lanescol ) and insertstoplisop == scoliolsionsecsecesnesasecesros )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 7, 'sentence-id': 1, 'sentence': 'In the case where parameter mode is set to threshold and the calculated time is less than threshold.time_threshold parameter, then we decide to avoid the out of lane area.', 'tl': 'always ( whereparameter == calc and calulhresholdpae == reteterameter -&gt; fall ( wededecide == avoidearealarea ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 7, 'sentence-id': 3, 'sentence': 'If the time to collision is bellow the ttc.threshold parameter value, we decide to avoid the out of lane area.', 'tl': 'always ( colisionbelow == clarameter )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 8, 'sentence-id': 8, 'sentence': 'If this distance is bellow the actions.slowdown.threshold, a velocity of actions.slowdown.velocity will be used.', 'tl': 'always ( distanceblow == slowdowdon . avelocityacit == S ) until ( delociocityav == cionslonslocitwdn ) -&gt; ( slowdowdow == dowdownvelocnvelocit == lociylelociysl ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 9, 'sentence-id': 1, 'sentence': 'To make the decision more stable, a stop or slowdown pose is used for a minimum duration set by the action.min_duration parameter.', 'tl': 'always ( Tomakedecisions == stableasto or slowdwdownpseused == aminuratiurationu )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 8, 'sentence-id': 2, 'sentence': 'The search is done by moving backward along the trajectory with a distance step set by the action.precision parameter.', 'tl': 'always ( searchdoneb == yingacrdalong == trajectodectrywit ) until ( str == aitahadKrycistetadK ) -&gt; epepbycstepbyrep == eprecistepre )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 8, 'sentence-id': 5, 'sentence': 'If still no valid pose is found, we use the base ego footprint without any offset.', 'tl': 'always ( stilvalidposef == oundweusebasego == eofotprintofset )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 8, 'sentence-id': 7, 'sentence': 'Whether it is decided to slow down or stop is determined by the distance between the ego vehicle and the trajectory point to avoid.', 'tl': 'always ( Whetheritdecided == slow or stopdetermined == ibydistacegovehicle and tregovehicle == tratrajectre )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 8, 'sentence-id': 6, 'sentence': 'In case no pose is found, we fallback to using the pose before the detected collision without caring if it is out of lane or not.', 'tl': 'always ( posefoundwe == falbacksingpose or not fall ( colilisinon == carlingit ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 9, 'sentence-id': 3, 'sentence': 'Otherwise, the stop or slowdown pose will only be discarded after no out of lane collision is detection for the set duration.', 'tl': 'always ( Otherwise == stop or not ( slowdonly == discarded ) -&gt; ( lanecolisionde == detectionduration ) until ( not ( s == lolwduasecio ) ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 9, 'sentence-id': 2, 'sentence': 'If during that time a new pose closer to the ego vehicle is generated, then it replaces the previous one.', 'tl': 'always ( anewposecloser == egovehiclegenrated -&gt; itreplacespes == rviousone )'}</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,13 +344,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -818,148 +811,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1314,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="174" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="174" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1423,8 +1416,11 @@
       <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
-        <v>7</v>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
@@ -1438,34 +1434,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1482,13 +1478,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -1496,8 +1492,11 @@
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" t="s">
-        <v>7</v>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
@@ -1511,28 +1510,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1540,19 +1548,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
@@ -1578,28 +1586,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" t="s">
-        <v>7</v>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1607,28 +1624,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" t="s">
-        <v>7</v>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1636,28 +1662,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" t="s">
-        <v>7</v>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1665,28 +1700,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" t="s">
-        <v>7</v>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1694,28 +1738,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1723,28 +1776,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1752,16 +1814,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -1778,8 +1840,11 @@
       <c r="J14" t="s">
         <v>7</v>
       </c>
-      <c r="L14" t="s">
-        <v>7</v>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1793,13 +1858,13 @@
         <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
@@ -1813,8 +1878,11 @@
       <c r="J15" t="s">
         <v>7</v>
       </c>
-      <c r="L15" t="s">
-        <v>7</v>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1828,13 +1896,13 @@
         <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
@@ -1848,8 +1916,11 @@
       <c r="J16" t="s">
         <v>7</v>
       </c>
-      <c r="L16" t="s">
-        <v>7</v>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1863,25 +1934,31 @@
         <v>90</v>
       </c>
       <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
       <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" t="s">
-        <v>7</v>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1889,28 +1966,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1918,34 +2004,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1962,22 +2048,31 @@
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" t="s">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1991,16 +2086,13 @@
         <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
         <v>7</v>
@@ -2011,8 +2103,11 @@
       <c r="J21" t="s">
         <v>7</v>
       </c>
-      <c r="L21" t="s">
-        <v>7</v>
+      <c r="K21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2026,13 +2121,13 @@
         <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
@@ -2040,14 +2135,20 @@
       <c r="H22" t="s">
         <v>7</v>
       </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="I22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2068,21 +2169,6 @@
       </c>
       <c r="G23" t="s">
         <v>7</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2181,22 +2267,22 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2219,22 +2305,22 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2257,22 +2343,22 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2294,23 +2380,21 @@
       <c r="F29" t="s">
         <v>7</v>
       </c>
-      <c r="G29" t="s">
-        <v>77</v>
-      </c>
       <c r="H29">
-        <v>1</v>
+        <f>COUNTIF(H2:H28,0)</f>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2332,23 +2416,17 @@
       <c r="F30" t="s">
         <v>7</v>
       </c>
-      <c r="G30" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2370,270 +2448,26 @@
       <c r="F31" t="s">
         <v>7</v>
       </c>
-      <c r="G31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="7:12">
-      <c r="G32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="10:12">
       <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
-        <v>77</v>
+        <f>COUNTIF(J2:J31,0)</f>
+        <v>19</v>
       </c>
       <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="7:12">
-      <c r="G33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>87</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
-        <v>79</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="7:12">
-      <c r="G34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>82</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="7:12">
-      <c r="G35" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35" t="s">
-        <v>84</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="7:12">
-      <c r="G36" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>86</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="7:12">
-      <c r="G37" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>84</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>88</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="8:12">
-      <c r="H38">
-        <f>SUM(H26:H37)</f>
-        <v>12</v>
-      </c>
-      <c r="I38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>89</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="9:12">
-      <c r="I39" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
-        <v>92</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="9:12">
-      <c r="I40" t="s">
-        <v>89</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>93</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="9:12">
-      <c r="I41" t="s">
-        <v>94</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="9:12">
-      <c r="I42" t="s">
-        <v>90</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
-        <v>94</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="9:12">
-      <c r="I43" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43" t="s">
-        <v>90</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="9:12">
-      <c r="I44" t="s">
-        <v>96</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
-        <v>91</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="10:12">
-      <c r="J45">
-        <f>SUM(J26:J44)</f>
-        <v>19</v>
-      </c>
-      <c r="K45" t="s">
-        <v>97</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="11:12">
-      <c r="K46" t="s">
-        <v>96</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="12:12">
-      <c r="L47">
-        <f>SUM(L26:L46)</f>
+        <f>COUNTIF(L2:L31,0)</f>
         <v>21</v>
       </c>
     </row>
